--- a/src/result_standard_error.xlsx
+++ b/src/result_standard_error.xlsx
@@ -443,541 +443,541 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_5分休憩</t>
+          <t>LF/HF_津波避難VR準備</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.776325532444259e-15</v>
+        <v>0.9488361294261498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Temp_5分休憩</t>
+          <t>LF/(LF+HF)_津波避難VR準備</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.431970663481317e-15</v>
+        <v>0.902574887567708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_津波避難VR準備</t>
+          <t>DC_実験前準備・評価</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.8283831180807322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Temp_津波避難VR準備</t>
+          <t>LF/(LF+HF)_心理的安定化</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.362336169800453e-15</v>
+        <v>0.6956508384695554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_津波避難VR</t>
+          <t>LF/HF_心理的安定化</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.282704101665136e-15</v>
+        <v>0.6950932619841408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RRI_テスト歩行</t>
+          <t>Acc_y_テスト歩行</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.092380154586538e-15</v>
+        <v>0.5163769334181794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_心理的安定化</t>
+          <t>CVRR_実験教示</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.042816626701486e-15</v>
+        <v>0.5109381142845518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_実験前準備・評価</t>
+          <t>唾液（kU/l）_実験教示</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.476546531621871e-16</v>
+        <v>0.4952875479630338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_実験教示</t>
+          <t>Acc_y_5分休憩</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.119689130849501e-16</v>
+        <v>0.4941382428322082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AC_5分休憩</t>
+          <t>DC_5分休憩</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.000736663925377e-16</v>
+        <v>0.4924858694834262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RRI_津波避難VR</t>
+          <t>命の危険</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.186711543332487e-16</v>
+        <v>0.4906969680900358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SDNN_テスト歩行</t>
+          <t>Acc_y_心理的安定化</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.186711543332486e-16</v>
+        <v>0.4828937146978496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DC_5分休憩</t>
+          <t>Acc_y_実験教示</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.938893903907228e-16</v>
+        <v>0.4806443158995991</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_心理的安定化</t>
+          <t>Acc_y_実験前準備・評価</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.800116025829084e-16</v>
+        <v>0.4758142022704546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CVRR_津波避難VR</t>
+          <t>Acc_x_実験教示</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.630416767741865e-16</v>
+        <v>0.4703251158857875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_心理的安定化</t>
+          <t>LF/(LF+HF)_実験教示</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.432162656201659e-16</v>
+        <v>0.4601590684121363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_実験教示</t>
+          <t>LF_津波避難VR準備</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.599495387732792e-16</v>
+        <v>0.4549199740126257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1. 安静時_状態不安</t>
+          <t>SDNN_津波避難VR準備</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.528784754616784e-16</v>
+        <v>0.4537432153651569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SDNN_5分休憩</t>
+          <t>2. 教示後_唾液kU/l</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.500368331962688e-16</v>
+        <v>0.453385561284279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DC_心理的安定化</t>
+          <t>Acc_y_津波避難VR準備</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.202987164652378e-16</v>
+        <v>0.4477012703614316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CVRR_実験前準備・評価</t>
+          <t>RMSSD_津波避難VR準備</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.123685520036296e-16</v>
+        <v>0.4469772518807347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RRI_実験前準備・評価</t>
+          <t>DC_心理的安定化</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.608224830031759e-16</v>
+        <v>0.44075080007948</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_実験教示</t>
+          <t>DC_実験教示</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.335625426663975e-16</v>
+        <v>0.4404512545099334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CVRR_テスト歩行</t>
+          <t>Acc_y_津波避難VR</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.251367429259387e-16</v>
+        <v>0.4371980760963804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CVRR_5分休憩</t>
+          <t>LF_実験教示</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.201803901374335e-16</v>
+        <v>0.4242911865630069</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SDNN_津波避難VR準備</t>
+          <t>LF/(LF+HF)_5分休憩</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.14563190310461e-16</v>
+        <v>0.4041760052054447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_テスト歩行</t>
+          <t>LF_テスト歩行</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.072938728873201e-16</v>
+        <v>0.3892507770533947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NN50_実験教示</t>
+          <t>LF/HF_テスト歩行</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.973811673103098e-16</v>
+        <v>0.3877626244833277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>4. 津波後_状態不安</t>
+          <t>DC_テスト歩行</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.960594732333751e-16</v>
+        <v>0.3872412785727144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_心理的安定化</t>
+          <t>SDNN_実験教示</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.894510028487015e-16</v>
+        <v>0.3871812323594297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_実験教示</t>
+          <t>Acc_x_テスト歩行</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.815208383870933e-16</v>
+        <v>0.3838830947990539</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RRI_実験教示</t>
+          <t>LF/HF_5分休憩</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.656605094638767e-16</v>
+        <v>0.3832228066778187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_津波避難VR</t>
+          <t>DC_津波避難VR</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.517827216560623e-16</v>
+        <v>0.3772865867315235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_テスト歩行</t>
+          <t>Acc_x_心理的安定化</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.458350983098561e-16</v>
+        <v>0.3695498416907627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DC_津波避難VR</t>
+          <t>LF_5分休憩</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.319573105020416e-16</v>
+        <v>0.3611619107613895</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AC_心理的安定化</t>
+          <t>NN50_実験前準備・評価</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.240271460404334e-16</v>
+        <v>0.3509822454670739</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>HF_5分休憩</t>
+          <t>CVRR_津波避難VR準備</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.160969815788251e-16</v>
+        <v>0.3440072461371517</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>避難行動に関する知識の正答率</t>
+          <t>LF/(LF+HF)_津波避難VR</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.035408878479454e-16</v>
+        <v>0.3365755556391778</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>HF_テスト歩行</t>
+          <t>LF_心理的安定化</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.923064881940003e-16</v>
+        <v>0.3363970889921339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>NN50_津波避難VR</t>
+          <t>Acc_x_津波避難VR</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.883414059631962e-16</v>
+        <v>0.3186908703879167</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>LF_心理的安定化</t>
+          <t>RRI_実験前準備・評価</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.625683714629693e-16</v>
+        <v>0.3101131902971641</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>HF_心理的安定化</t>
+          <t>pNN50_津波避難VR準備</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.030921380009074e-16</v>
+        <v>0.3098500665758962</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>LF_実験前準備・評価</t>
+          <t>CVRR_実験前準備・評価</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.011095968855053e-16</v>
+        <v>0.3048606971255876</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_心理的安定化</t>
+          <t>CVRR_テスト歩行</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.516197353929914e-17</v>
+        <v>0.2994731029909369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>AC_実験前準備・評価</t>
+          <t>RMSSD_テスト歩行</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.524926796228881e-17</v>
+        <v>0.2928789893835759</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>HF_実験前準備・評価</t>
+          <t>Temp_実験教示</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7.682346822183003e-17</v>
+        <v>0.2887471176372235</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_心理的安定化</t>
+          <t>pNN50_実験前準備・評価</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.533656238527848e-17</v>
+        <v>0.2838701976133275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>HF_津波避難VR準備</t>
+          <t>DCAnchor_実験前準備・評価</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.401486830834378e-17</v>
+        <v>0.2781010168866626</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2. 教示後_唾液kU/l</t>
+          <t>HF_津波避難VR準備</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.401486830834377e-17</v>
+        <v>0.2756631738010246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_実験教示</t>
+          <t>SDNN_実験前準備・評価</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.137148015447435e-17</v>
+        <v>0.2755452109638483</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>HF_実験教示</t>
+          <t>Acc_x_実験前準備・評価</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.991167937223494e-17</v>
+        <v>0.2665925756884967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_津波避難VR準備</t>
+          <t>HF_実験教示</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6.938893903907228e-17</v>
+        <v>0.2639981437141019</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>NN50_テスト歩行</t>
+          <t>Acc_x_5分休憩</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.740639792367021e-17</v>
+        <v>0.2582011426190488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_津波避難VR準備</t>
+          <t>LF/(LF+HF)_テスト歩行</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.47630097698008e-17</v>
+        <v>0.2573745928508357</v>
       </c>
     </row>
     <row r="56">
@@ -987,687 +987,687 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6.013708050052931e-17</v>
+        <v>0.2395646198176326</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_5分休憩</t>
+          <t>RMSSD_実験前準備・評価</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0.2349483620171394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>1. 安静時_唾液kU/l</t>
+          <t>HF_実験前準備・評価</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.366077952354923e-17</v>
+        <v>0.2281992973750115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>LF_津波避難VR</t>
+          <t>DCAnchor_津波避難VR</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.352861011585576e-17</v>
+        <v>0.2240648305274614</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_テスト歩行</t>
+          <t>RMSSD_実験教示</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.15460690004537e-17</v>
+        <v>0.221933123905427</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_テスト歩行</t>
+          <t>HF_テスト歩行</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5.105043372160318e-17</v>
+        <v>0.220950370651441</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>調和性</t>
+          <t>LF_実験前準備・評価</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.475586568020162e-17</v>
+        <v>0.2184286507666703</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_5分休憩</t>
+          <t>DC_津波避難VR準備</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.361590453884543e-17</v>
+        <v>0.2124137258064377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>5. 休憩後_唾液kU/l</t>
+          <t>DCAnchor_実験教示</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.348373513115196e-17</v>
+        <v>0.2055577379049994</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>楽観的自己感情</t>
+          <t>家屋被災</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.232725281383409e-17</v>
+        <v>0.2014328204623573</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_5分休憩</t>
+          <t>DCAnchor_心理的安定化</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.965082230804131e-17</v>
+        <v>0.193703253046843</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_心理的安定化</t>
+          <t>SDNN_津波避難VR</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.965082230804131e-17</v>
+        <v>0.1936304822144797</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_5分休憩</t>
+          <t>DCAnchor_テスト歩行</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.370319896183511e-17</v>
+        <v>0.1905415738239843</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>pNN50_実験教示</t>
+          <t>SDNN_5分休憩</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.172065784643304e-17</v>
+        <v>0.1903195634359868</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_実験前準備・評価</t>
+          <t>DCAnchor_5分休憩</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.172065784643304e-17</v>
+        <v>0.1852008214605767</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_津波避難VR準備</t>
+          <t>DCAnchor_津波避難VR準備</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0.1623378589161947</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_実験前準備・評価</t>
+          <t>CVRR_心理的安定化</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.62416351275037e-17</v>
+        <v>0.1296757067829136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_テスト歩行</t>
+          <t>不安（80点中）_実験教示</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.379049338482478e-17</v>
+        <v>0.1162737597012141</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_津波避難VR</t>
+          <t>1. 安静時_唾液kU/l</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.982541115402066e-17</v>
+        <v>0.1115179544654177</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_津波避難VR</t>
+          <t>6. fantasy後_唾液kU/l</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.586032892321652e-17</v>
+        <v>0.1085869042990747</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>HF_津波避難VR</t>
+          <t>NN50_実験教示</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.189524669241239e-17</v>
+        <v>0.1010528240475626</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>NN50_5分休憩</t>
+          <t>pNN50_実験教示</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.189524669241239e-17</v>
+        <v>0.09880000320674229</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>6. fantasy後_唾液kU/l</t>
+          <t>SDNN_テスト歩行</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-4.625929269271485e-18</v>
+        <v>0.0805081358308245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_津波避難VR準備</t>
+          <t>不安（80点中）_心理的安定化</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-9.251858538542971e-18</v>
+        <v>0.0653331767356229</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_津波避難VR準備</t>
+          <t>Temp_テスト歩行</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-1.156482317317872e-17</v>
+        <v>0.0637555386622503</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_実験教示</t>
+          <t>唾液（kU/l）_心理的安定化</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1.586032892321652e-17</v>
+        <v>0.06063772615141916</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LF_津波避難VR準備</t>
+          <t>RRI_テスト歩行</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0.05682631747775534</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>楽観主義バイアスtotal（自己－他者）</t>
+          <t>pNN50_テスト歩行</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-2.960594732333751e-17</v>
+        <v>0.05580238475291622</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>3. テスト歩行後_唾液kU/l</t>
+          <t>RRI_5分休憩</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-3.353798720221827e-17</v>
+        <v>0.05552156110517181</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>LF_5分休憩</t>
+          <t>Acc_x_津波避難VR準備</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-3.370319896183511e-17</v>
+        <v>0.04670976596817138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>SDNN_心理的安定化</t>
+          <t>Temp_実験前準備・評価</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-3.568574007723717e-17</v>
+        <v>0.04405425140343673</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>pNN50_実験前準備・評価</t>
+          <t>唾液（kU/l）_実験前準備・評価</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-3.568574007723717e-17</v>
+        <v>0.03459288319397</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_5分休憩</t>
+          <t>SDNN_心理的安定化</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-3.965082230804131e-17</v>
+        <v>0.02830250167793452</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>pNN50_5分休憩</t>
+          <t>NN50_津波避難VR</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-4.361590453884543e-17</v>
+        <v>0.02705792364644388</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>特性不安total</t>
+          <t>Acc_z_実験教示</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-5.643633708511212e-17</v>
+        <v>0.01830054295697004</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>LF_テスト歩行</t>
+          <t>CVRR_5分休憩</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-6.740639792367021e-17</v>
+        <v>0.01431451733121983</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_5分休憩</t>
+          <t>2. 教示後_状態不安</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-6.740639792367023e-17</v>
+        <v>0.009019807131213642</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_実験教示</t>
+          <t>RRI_津波避難VR</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-7.137148015447434e-17</v>
+        <v>0.007487792595591333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_実験前準備・評価</t>
+          <t>RMSSD_5分休憩</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-7.137148015447434e-17</v>
+        <v>0.005354795275502196</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>pNN50_テスト歩行</t>
+          <t>RRI_実験教示</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-7.137148015447434e-17</v>
+        <v>-0.003689679987561873</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_津波避難VR</t>
+          <t>ACAnchor_実験教示</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-7.137148015447434e-17</v>
+        <v>-0.008676564636622282</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_テスト歩行</t>
+          <t>ACAnchor_津波避難VR</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-7.137148015447434e-17</v>
+        <v>-0.01227248281128906</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>pNN50_津波避難VR準備</t>
+          <t>Temp_津波避難VR</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-7.401486830834377e-17</v>
+        <v>-0.02488750335410688</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_5分休憩</t>
+          <t>NN50_5分休憩</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-7.533656238527848e-17</v>
+        <v>-0.02861538438175425</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_実験前準備・評価</t>
+          <t>RRI_津波避難VR準備</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>-0.02905503606262455</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>LF_実験教示</t>
+          <t>外向性</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>-0.03133158069496669</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>CVRR_心理的安定化</t>
+          <t>Acc_z_5分休憩</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-8.723180907769088e-17</v>
+        <v>-0.03406689470710779</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>家屋被災</t>
+          <t>ACAnchor_実験前準備・評価</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-8.881784197001253e-17</v>
+        <v>-0.03921225552136803</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>命の危険</t>
+          <t>NN50_テスト歩行</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-9.251858538542972e-17</v>
+        <v>-0.03967990275299824</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_実験前準備・評価</t>
+          <t>pNN50_津波避難VR</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-9.71445146547012e-17</v>
+        <v>-0.03975578142212481</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>6. fantasy後_状態不安</t>
+          <t>LF/HF_津波避難VR</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-9.71445146547012e-17</v>
+        <v>-0.04116538712908541</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>4. 津波後_唾液kU/l</t>
+          <t>ACAnchor_心理的安定化</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-1.036208156316813e-16</v>
+        <v>-0.04194914388216121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>pNN50_津波避難VR</t>
+          <t>pNN50_5分休憩</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1.130048435779177e-16</v>
+        <v>-0.04295879547048061</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>pNN50_心理的安定化</t>
+          <t>ACAnchor_テスト歩行</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1.149873846933198e-16</v>
+        <v>-0.04429053260008296</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_実験前準備・評価</t>
+          <t>Acc_z_テスト歩行</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1.149873846933198e-16</v>
+        <v>-0.05253959649379204</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_心理的安定化</t>
+          <t>Temp_心理的安定化</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1.20935008039526e-16</v>
+        <v>-0.05753743053101873</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_津波避難VR準備</t>
+          <t>ACAnchor_5分休憩</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-1.249000902703301e-16</v>
+        <v>-0.06041817343695138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AC_津波避難VR</t>
+          <t>悲観的自己感情</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1.268826313857322e-16</v>
+        <v>-0.06128654101667613</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_津波避難VR</t>
+          <t>6. fantasy後_状態不安</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1.298564430588353e-16</v>
+        <v>-0.06642087831710303</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>CVRR_実験教示</t>
+          <t>誠実性</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1.318389841742373e-16</v>
+        <v>-0.07835721341332415</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_実験教示</t>
+          <t>ACAnchor_津波避難VR準備</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-1.427429603089487e-16</v>
+        <v>-0.07985976007168702</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>NN50_心理的安定化</t>
+          <t>Acc_z_津波避難VR</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-1.427429603089487e-16</v>
+        <v>-0.08101488257684028</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>誠実性</t>
+          <t>Acc_z_心理的安定化</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-1.480297366166875e-16</v>
+        <v>-0.09022970754036473</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_津波避難VR</t>
+          <t>Temp_津波避難VR準備</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1.635596420206704e-16</v>
+        <v>-0.09420167330752843</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_津波避難VR</t>
+          <t>Temp_5分休憩</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1.764461592707838e-16</v>
+        <v>-0.09923965160089071</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>情緒不安定性</t>
+          <t>RMSSD_津波避難VR</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1.813364273554422e-16</v>
+        <v>-0.1131053533821173</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>SDNN_実験教示</t>
+          <t>CVRR_津波避難VR</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-2.089102700354926e-16</v>
+        <v>-0.1169850735816766</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_実験前準備・評価</t>
+          <t>情緒不安定性</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0.1210779862153861</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_心理的安定化</t>
+          <t>4. 津波後_唾液kU/l</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-2.379049338482478e-16</v>
+        <v>-0.1423872629987296</v>
       </c>
     </row>
     <row r="125">
@@ -1677,367 +1677,367 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-2.379049338482479e-16</v>
+        <v>-0.1456463585607099</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>3. テスト歩行後_状態不安</t>
+          <t>AC_実験前準備・評価</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.470246229790973e-16</v>
+        <v>-0.1511671244100568</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>NN50_実験前準備・評価</t>
+          <t>楽観的自己感情</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.537652627714643e-16</v>
+        <v>-0.1636338597891901</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_実験教示</t>
+          <t>HF_5分休憩</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-2.537652627714643e-16</v>
+        <v>-0.1719376873887061</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>外向性</t>
+          <t>唾液（kU/l）_5分休憩</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-2.590520390792032e-16</v>
+        <v>-0.1743687883167021</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>AC_津波避難VR準備</t>
+          <t>Acc_z_実験前準備・評価</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-2.61365003713839e-16</v>
+        <v>-0.1964144326753048</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>悲観的自己感情</t>
+          <t>不安（80点中）_5分休憩</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-2.794061278639977e-16</v>
+        <v>-0.2130911709180502</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>開放性</t>
+          <t>5. 休憩後_状態不安</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-3.256654205567126e-16</v>
+        <v>-0.2135098825591774</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>DC_津波避難VR準備</t>
+          <t>不安（80点中）_テスト歩行</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-3.284409781182755e-16</v>
+        <v>-0.2215206742910831</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SDNN_津波避難VR</t>
+          <t>Acc_z_津波避難VR準備</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-3.400058012914542e-16</v>
+        <v>-0.2221784821164072</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_5分休憩</t>
+          <t>特性不安total</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-3.409970718491552e-16</v>
+        <v>-0.2243208295093228</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2. 教示後_状態不安</t>
+          <t>不安（80点中）_実験前準備・評価</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-3.809452753245068e-16</v>
+        <v>-0.2277933709049278</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>CVRR_津波避難VR準備</t>
+          <t>開放性</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-3.978299171573478e-16</v>
+        <v>-0.2279477069883272</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>5. 休憩後_状態不安</t>
+          <t>楽観主義バイアスtotal（自己－他者）</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-4.01530660572765e-16</v>
+        <v>-0.2449427020489673</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>RRI_津波避難VR準備</t>
+          <t>AC_津波避難VR準備</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-4.070817756958907e-16</v>
+        <v>-0.2540813370586695</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_実験前準備・評価</t>
+          <t>RMSSD_心理的安定化</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-4.140206695997979e-16</v>
+        <v>-0.2788325276755298</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_実験教示</t>
+          <t>LF_津波避難VR</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-4.579669976578771e-16</v>
+        <v>-0.2918393905584706</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>DC_実験教示</t>
+          <t>LF/(LF+HF)_実験前準備・評価</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-4.718447854656915e-16</v>
+        <v>-0.312897924779697</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>DC_実験前準備・評価</t>
+          <t>AC_実験教示</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-4.87705114388908e-16</v>
+        <v>-0.314087088314235</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_テスト歩行</t>
+          <t>LF/HF_実験教示</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-5.035654433121246e-16</v>
+        <v>-0.3145071276129873</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_テスト歩行</t>
+          <t>唾液（kU/l）_テスト歩行</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-5.189920913663469e-16</v>
+        <v>-0.3165490271553706</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>SDNN_実験前準備・評価</t>
+          <t>4. 津波後_状態不安</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-5.248777603026967e-16</v>
+        <v>-0.3189427247294943</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>AC_実験教示</t>
+          <t>AC_心理的安定化</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-5.372686422739597e-16</v>
+        <v>-0.3241613855305782</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_5分休憩</t>
+          <t>NN50_心理的安定化</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-6.145877457746402e-16</v>
+        <v>-0.3267866914616877</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_テスト歩行</t>
+          <t>HF_津波避難VR</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-7.147060721024445e-16</v>
+        <v>-0.3268628222395054</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>DC_テスト歩行</t>
+          <t>5. 休憩後_唾液kU/l</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-8.921435019309293e-16</v>
+        <v>-0.3280480573738138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RRI_5分休憩</t>
+          <t>3. テスト歩行後_唾液kU/l</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-9.75410228777816e-16</v>
+        <v>-0.3297961456471997</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Temp_津波避難VR</t>
+          <t>避難行動に関する知識の正答率</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.032903921124476e-15</v>
+        <v>-0.3373253623070786</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>AC_テスト歩行</t>
+          <t>3. テスト歩行後_状態不安</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1.108240483509755e-15</v>
+        <v>-0.3397710953392497</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_津波避難VR準備</t>
+          <t>AC_津波避難VR</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1.225871256356944e-15</v>
+        <v>-0.3402671667055739</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Temp_心理的安定化</t>
+          <t>HF_心理的安定化</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1.244044549914796e-15</v>
+        <v>-0.3429541104378235</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Temp_テスト歩行</t>
+          <t>pNN50_心理的安定化</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1.308477136165363e-15</v>
+        <v>-0.3469788466241768</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_実験前準備・評価</t>
+          <t>1. 安静時_状態不安</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1.782304462746457e-15</v>
+        <v>-0.3524156074553712</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_テスト歩行</t>
+          <t>AC_テスト歩行</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-2.831068712794149e-15</v>
+        <v>-0.3716621072980005</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Temp_実験前準備・評価</t>
+          <t>AC_5分休憩</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-3.451604081914996e-15</v>
+        <v>-0.4123816896695369</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_心理的安定化</t>
+          <t>調和性</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-3.659770899032213e-15</v>
+        <v>-0.4389893879626672</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Temp_実験教示</t>
+          <t>LF/HF_実験前準備・評価</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-4.167301424575141e-15</v>
+        <v>-0.4935097294920562</v>
       </c>
     </row>
     <row r="162">

--- a/src/result_standard_error.xlsx
+++ b/src/result_standard_error.xlsx
@@ -443,811 +443,807 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_津波避難VR準備</t>
+          <t>1. 安静時_唾液kU/l</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9488361294261498</v>
+        <v>0.1115179544654177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_津波避難VR準備</t>
+          <t>2. 教示後_唾液kU/l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.902574887567708</v>
+        <v>0.453385561284279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DC_実験前準備・評価</t>
+          <t>3. テスト歩行後_唾液kU/l</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8283831180807322</v>
+        <v>-0.3297961456471997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_心理的安定化</t>
+          <t>4. 津波後_唾液kU/l</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6956508384695554</v>
+        <v>-0.1423872629987296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_心理的安定化</t>
+          <t>5. 休憩後_唾液kU/l</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6950932619841408</v>
+        <v>-0.3280480573738138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_テスト歩行</t>
+          <t>6. fantasy後_唾液kU/l</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5163769334181794</v>
+        <v>0.1085869042990747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CVRR_実験教示</t>
+          <t>1. 安静時_状態不安</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5109381142845518</v>
+        <v>-0.3524156074553712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_実験教示</t>
+          <t>2. 教示後_状態不安</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4952875479630338</v>
+        <v>0.009019807131213642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_5分休憩</t>
+          <t>3. テスト歩行後_状態不安</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4941382428322082</v>
+        <v>-0.3397710953392497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DC_5分休憩</t>
+          <t>4. 津波後_状態不安</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4924858694834262</v>
+        <v>-0.3189427247294943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>命の危険</t>
+          <t>5. 休憩後_状態不安</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4906969680900358</v>
+        <v>-0.2135098825591774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_心理的安定化</t>
+          <t>6. fantasy後_状態不安</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4828937146978496</v>
+        <v>-0.06642087831710303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_実験教示</t>
+          <t>家屋被災</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4806443158995991</v>
+        <v>0.2014328204623573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_実験前準備・評価</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4758142022704546</v>
-      </c>
+          <t>家族喪失</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_実験教示</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4703251158857875</v>
-      </c>
+          <t>知人喪失</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_実験教示</t>
+          <t>命の危険</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4601590684121363</v>
+        <v>0.4906969680900358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>LF_津波避難VR準備</t>
+          <t>避難行動に関する知識の正答率</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4549199740126257</v>
+        <v>-0.3373253623070786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SDNN_津波避難VR準備</t>
+          <t>特性不安total</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4537432153651569</v>
+        <v>-0.2243208295093228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2. 教示後_唾液kU/l</t>
+          <t>誠実性</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.453385561284279</v>
+        <v>-0.07835721341332415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_津波避難VR準備</t>
+          <t>情緒不安定性</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4477012703614316</v>
+        <v>-0.1210779862153861</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_津波避難VR準備</t>
+          <t>外向性</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4469772518807347</v>
+        <v>-0.03133158069496669</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DC_心理的安定化</t>
+          <t>開放性</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.44075080007948</v>
+        <v>-0.2279477069883272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DC_実験教示</t>
+          <t>調和性</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4404512545099334</v>
+        <v>-0.4389893879626672</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Acc_y_津波避難VR</t>
+          <t>楽観的自己感情</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4371980760963804</v>
+        <v>-0.1636338597891901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>LF_実験教示</t>
+          <t>悲観的自己感情</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4242911865630069</v>
+        <v>-0.06128654101667613</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_5分休憩</t>
+          <t>楽観主義バイアスtotal（自己－他者）</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4041760052054447</v>
+        <v>-0.2449427020489673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LF_テスト歩行</t>
+          <t>唾液（kU/l）_実験前準備・評価</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3892507770533947</v>
+        <v>0.03459288319397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_テスト歩行</t>
+          <t>不安（80点中）_実験前準備・評価</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3877626244833277</v>
+        <v>-0.2277933709049278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DC_テスト歩行</t>
+          <t>RRI_実験前準備・評価</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3872412785727144</v>
+        <v>0.3101131902971641</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>SDNN_実験教示</t>
+          <t>LF_実験前準備・評価</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3871812323594297</v>
+        <v>0.2184286507666703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_テスト歩行</t>
+          <t>HF_実験前準備・評価</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3838830947990539</v>
+        <v>0.2281992973750115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_5分休憩</t>
+          <t>LF/HF_実験前準備・評価</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3832228066778187</v>
+        <v>-0.4935097294920562</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>DC_津波避難VR</t>
+          <t>LF/(LF+HF)_実験前準備・評価</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3772865867315235</v>
+        <v>-0.312897924779697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_心理的安定化</t>
+          <t>Temp_実験前準備・評価</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3695498416907627</v>
+        <v>0.04405425140343673</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>LF_5分休憩</t>
+          <t>Acc_x_実験前準備・評価</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3611619107613895</v>
+        <v>0.2665925756884967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>NN50_実験前準備・評価</t>
+          <t>Acc_y_実験前準備・評価</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3509822454670739</v>
+        <v>0.4758142022704546</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CVRR_津波避難VR準備</t>
+          <t>Acc_z_実験前準備・評価</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3440072461371517</v>
+        <v>-0.1964144326753048</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_津波避難VR</t>
+          <t>CVRR_実験前準備・評価</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3365755556391778</v>
+        <v>0.3048606971255876</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>LF_心理的安定化</t>
+          <t>SDNN_実験前準備・評価</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3363970889921339</v>
+        <v>0.2755452109638483</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_津波避難VR</t>
+          <t>RMSSD_実験前準備・評価</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3186908703879167</v>
+        <v>0.2349483620171394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>RRI_実験前準備・評価</t>
+          <t>NN50_実験前準備・評価</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3101131902971641</v>
+        <v>0.3509822454670739</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>pNN50_津波避難VR準備</t>
+          <t>pNN50_実験前準備・評価</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3098500665758962</v>
+        <v>0.2838701976133275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CVRR_実験前準備・評価</t>
+          <t>AC_実験前準備・評価</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3048606971255876</v>
+        <v>-0.1511671244100568</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CVRR_テスト歩行</t>
+          <t>ACAnchor_実験前準備・評価</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2994731029909369</v>
+        <v>-0.03921225552136803</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_テスト歩行</t>
+          <t>DC_実験前準備・評価</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2928789893835759</v>
+        <v>0.8283831180807322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Temp_実験教示</t>
+          <t>DCAnchor_実験前準備・評価</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2887471176372235</v>
+        <v>0.2781010168866626</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>pNN50_実験前準備・評価</t>
+          <t>唾液（kU/l）_実験教示</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2838701976133275</v>
+        <v>0.4952875479630338</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_実験前準備・評価</t>
+          <t>不安（80点中）_実験教示</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2781010168866626</v>
+        <v>0.1162737597012141</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>HF_津波避難VR準備</t>
+          <t>RRI_実験教示</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2756631738010246</v>
+        <v>-0.003689679987561873</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SDNN_実験前準備・評価</t>
+          <t>LF_実験教示</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2755452109638483</v>
+        <v>0.4242911865630069</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_実験前準備・評価</t>
+          <t>HF_実験教示</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2665925756884967</v>
+        <v>0.2639981437141019</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>HF_実験教示</t>
+          <t>LF/HF_実験教示</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2639981437141019</v>
+        <v>-0.3145071276129873</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_5分休憩</t>
+          <t>LF/(LF+HF)_実験教示</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2582011426190488</v>
+        <v>0.4601590684121363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_テスト歩行</t>
+          <t>Temp_実験教示</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2573745928508357</v>
+        <v>0.2887471176372235</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>NN50_津波避難VR準備</t>
+          <t>Acc_x_実験教示</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2395646198176326</v>
+        <v>0.4703251158857875</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_実験前準備・評価</t>
+          <t>Acc_y_実験教示</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2349483620171394</v>
+        <v>0.4806443158995991</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>HF_実験前準備・評価</t>
+          <t>Acc_z_実験教示</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2281992973750115</v>
+        <v>0.01830054295697004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_津波避難VR</t>
+          <t>CVRR_実験教示</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2240648305274614</v>
+        <v>0.5109381142845518</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_実験教示</t>
+          <t>SDNN_実験教示</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.221933123905427</v>
+        <v>0.3871812323594297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>HF_テスト歩行</t>
+          <t>RMSSD_実験教示</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.220950370651441</v>
+        <v>0.221933123905427</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>LF_実験前準備・評価</t>
+          <t>NN50_実験教示</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2184286507666703</v>
+        <v>0.1010528240475626</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>DC_津波避難VR準備</t>
+          <t>pNN50_実験教示</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2124137258064377</v>
+        <v>0.09880000320674229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_実験教示</t>
+          <t>AC_実験教示</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2055577379049994</v>
+        <v>-0.314087088314235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>家屋被災</t>
+          <t>ACAnchor_実験教示</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2014328204623573</v>
+        <v>-0.008676564636622282</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_心理的安定化</t>
+          <t>DC_実験教示</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.193703253046843</v>
+        <v>0.4404512545099334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>SDNN_津波避難VR</t>
+          <t>DCAnchor_実験教示</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1936304822144797</v>
+        <v>0.2055577379049994</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_テスト歩行</t>
+          <t>唾液（kU/l）_テスト歩行</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1905415738239843</v>
+        <v>-0.3165490271553706</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>SDNN_5分休憩</t>
+          <t>不安（80点中）_テスト歩行</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1903195634359868</v>
+        <v>-0.2215206742910831</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_5分休憩</t>
+          <t>RRI_テスト歩行</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1852008214605767</v>
+        <v>0.05682631747775534</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>DCAnchor_津波避難VR準備</t>
+          <t>LF_テスト歩行</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1623378589161947</v>
+        <v>0.3892507770533947</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>CVRR_心理的安定化</t>
+          <t>HF_テスト歩行</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1296757067829136</v>
+        <v>0.220950370651441</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_実験教示</t>
+          <t>LF/HF_テスト歩行</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1162737597012141</v>
+        <v>0.3877626244833277</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>1. 安静時_唾液kU/l</t>
+          <t>LF/(LF+HF)_テスト歩行</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1115179544654177</v>
+        <v>0.2573745928508357</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>6. fantasy後_唾液kU/l</t>
+          <t>Temp_テスト歩行</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1085869042990747</v>
+        <v>0.0637555386622503</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>NN50_実験教示</t>
+          <t>Acc_x_テスト歩行</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1010528240475626</v>
+        <v>0.3838830947990539</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>pNN50_実験教示</t>
+          <t>Acc_y_テスト歩行</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09880000320674229</v>
+        <v>0.5163769334181794</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>SDNN_テスト歩行</t>
+          <t>Acc_z_テスト歩行</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0805081358308245</v>
+        <v>-0.05253959649379204</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_心理的安定化</t>
+          <t>CVRR_テスト歩行</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0653331767356229</v>
+        <v>0.2994731029909369</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Temp_テスト歩行</t>
+          <t>SDNN_テスト歩行</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0637555386622503</v>
+        <v>0.0805081358308245</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_心理的安定化</t>
+          <t>RMSSD_テスト歩行</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06063772615141916</v>
+        <v>0.2928789893835759</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>RRI_テスト歩行</t>
+          <t>NN50_テスト歩行</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05682631747775534</v>
+        <v>-0.03967990275299824</v>
       </c>
     </row>
     <row r="83">
@@ -1263,441 +1259,441 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>RRI_5分休憩</t>
+          <t>AC_テスト歩行</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05552156110517181</v>
+        <v>-0.3716621072980005</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Acc_x_津波避難VR準備</t>
+          <t>ACAnchor_テスト歩行</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04670976596817138</v>
+        <v>-0.04429053260008296</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Temp_実験前準備・評価</t>
+          <t>DC_テスト歩行</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.04405425140343673</v>
+        <v>0.3872412785727144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_実験前準備・評価</t>
+          <t>DCAnchor_テスト歩行</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03459288319397</v>
+        <v>0.1905415738239843</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>SDNN_心理的安定化</t>
+          <t>RRI_津波避難VR準備</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02830250167793452</v>
+        <v>-0.02905503606262455</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN50_津波避難VR</t>
+          <t>LF_津波避難VR準備</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02705792364644388</v>
+        <v>0.4549199740126257</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_実験教示</t>
+          <t>HF_津波避難VR準備</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01830054295697004</v>
+        <v>0.2756631738010246</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>CVRR_5分休憩</t>
+          <t>LF/HF_津波避難VR準備</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01431451733121983</v>
+        <v>0.9488361294261498</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2. 教示後_状態不安</t>
+          <t>LF/(LF+HF)_津波避難VR準備</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.009019807131213642</v>
+        <v>0.902574887567708</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RRI_津波避難VR</t>
+          <t>Temp_津波避難VR準備</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.007487792595591333</v>
+        <v>-0.09420167330752843</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_5分休憩</t>
+          <t>Acc_x_津波避難VR準備</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.005354795275502196</v>
+        <v>0.04670976596817138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RRI_実験教示</t>
+          <t>Acc_y_津波避難VR準備</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.003689679987561873</v>
+        <v>0.4477012703614316</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_実験教示</t>
+          <t>Acc_z_津波避難VR準備</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.008676564636622282</v>
+        <v>-0.2221784821164072</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_津波避難VR</t>
+          <t>CVRR_津波避難VR準備</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.01227248281128906</v>
+        <v>0.3440072461371517</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Temp_津波避難VR</t>
+          <t>SDNN_津波避難VR準備</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.02488750335410688</v>
+        <v>0.4537432153651569</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN50_5分休憩</t>
+          <t>RMSSD_津波避難VR準備</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.02861538438175425</v>
+        <v>0.4469772518807347</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>RRI_津波避難VR準備</t>
+          <t>NN50_津波避難VR準備</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.02905503606262455</v>
+        <v>0.2395646198176326</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>外向性</t>
+          <t>pNN50_津波避難VR準備</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.03133158069496669</v>
+        <v>0.3098500665758962</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_5分休憩</t>
+          <t>AC_津波避難VR準備</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.03406689470710779</v>
+        <v>-0.2540813370586695</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_実験前準備・評価</t>
+          <t>ACAnchor_津波避難VR準備</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.03921225552136803</v>
+        <v>-0.07985976007168702</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN50_テスト歩行</t>
+          <t>DC_津波避難VR準備</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.03967990275299824</v>
+        <v>0.2124137258064377</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>pNN50_津波避難VR</t>
+          <t>DCAnchor_津波避難VR準備</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.03975578142212481</v>
+        <v>0.1623378589161947</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_津波避難VR</t>
+          <t>RRI_津波避難VR</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.04116538712908541</v>
+        <v>0.007487792595591333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_心理的安定化</t>
+          <t>LF_津波避難VR</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.04194914388216121</v>
+        <v>-0.2918393905584706</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>pNN50_5分休憩</t>
+          <t>HF_津波避難VR</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.04295879547048061</v>
+        <v>-0.3268628222395054</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_テスト歩行</t>
+          <t>LF/HF_津波避難VR</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.04429053260008296</v>
+        <v>-0.04116538712908541</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_テスト歩行</t>
+          <t>LF/(LF+HF)_津波避難VR</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.05253959649379204</v>
+        <v>0.3365755556391778</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Temp_心理的安定化</t>
+          <t>Temp_津波避難VR</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.05753743053101873</v>
+        <v>-0.02488750335410688</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_5分休憩</t>
+          <t>Acc_x_津波避難VR</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.06041817343695138</v>
+        <v>0.3186908703879167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>悲観的自己感情</t>
+          <t>Acc_y_津波避難VR</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.06128654101667613</v>
+        <v>0.4371980760963804</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>6. fantasy後_状態不安</t>
+          <t>Acc_z_津波避難VR</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.06642087831710303</v>
+        <v>-0.08101488257684028</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>誠実性</t>
+          <t>CVRR_津波避難VR</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.07835721341332415</v>
+        <v>-0.1169850735816766</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>ACAnchor_津波避難VR準備</t>
+          <t>SDNN_津波避難VR</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.07985976007168702</v>
+        <v>0.1936304822144797</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_津波避難VR</t>
+          <t>RMSSD_津波避難VR</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.08101488257684028</v>
+        <v>-0.1131053533821173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_心理的安定化</t>
+          <t>NN50_津波避難VR</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.09022970754036473</v>
+        <v>0.02705792364644388</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Temp_津波避難VR準備</t>
+          <t>pNN50_津波避難VR</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.09420167330752843</v>
+        <v>-0.03975578142212481</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Temp_5分休憩</t>
+          <t>AC_津波避難VR</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.09923965160089071</v>
+        <v>-0.3402671667055739</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_津波避難VR</t>
+          <t>ACAnchor_津波避難VR</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.1131053533821173</v>
+        <v>-0.01227248281128906</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>CVRR_津波避難VR</t>
+          <t>DC_津波避難VR</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.1169850735816766</v>
+        <v>0.3772865867315235</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>情緒不安定性</t>
+          <t>DCAnchor_津波避難VR</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.1210779862153861</v>
+        <v>0.2240648305274614</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>4. 津波後_唾液kU/l</t>
+          <t>唾液（kU/l）_5分休憩</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.1423872629987296</v>
+        <v>-0.1743687883167021</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>RRI_心理的安定化</t>
+          <t>不安（80点中）_5分休憩</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.1456463585607099</v>
+        <v>-0.2130911709180502</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>AC_実験前準備・評価</t>
+          <t>RRI_5分休憩</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.1511671244100568</v>
+        <v>0.05552156110517181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>楽観的自己感情</t>
+          <t>LF_5分休憩</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.1636338597891901</v>
+        <v>0.3611619107613895</v>
       </c>
     </row>
     <row r="128">
@@ -1713,348 +1709,352 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_5分休憩</t>
+          <t>LF/HF_5分休憩</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.1743687883167021</v>
+        <v>0.3832228066778187</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_実験前準備・評価</t>
+          <t>LF/(LF+HF)_5分休憩</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.1964144326753048</v>
+        <v>0.4041760052054447</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_5分休憩</t>
+          <t>Temp_5分休憩</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.2130911709180502</v>
+        <v>-0.09923965160089071</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>5. 休憩後_状態不安</t>
+          <t>Acc_x_5分休憩</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.2135098825591774</v>
+        <v>0.2582011426190488</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_テスト歩行</t>
+          <t>Acc_y_5分休憩</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.2215206742910831</v>
+        <v>0.4941382428322082</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Acc_z_津波避難VR準備</t>
+          <t>Acc_z_5分休憩</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.2221784821164072</v>
+        <v>-0.03406689470710779</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>特性不安total</t>
+          <t>CVRR_5分休憩</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.2243208295093228</v>
+        <v>0.01431451733121983</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>不安（80点中）_実験前準備・評価</t>
+          <t>SDNN_5分休憩</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.2277933709049278</v>
+        <v>0.1903195634359868</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>開放性</t>
+          <t>RMSSD_5分休憩</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.2279477069883272</v>
+        <v>0.005354795275502196</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>楽観主義バイアスtotal（自己－他者）</t>
+          <t>NN50_5分休憩</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.2449427020489673</v>
+        <v>-0.02861538438175425</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>AC_津波避難VR準備</t>
+          <t>pNN50_5分休憩</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.2540813370586695</v>
+        <v>-0.04295879547048061</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>RMSSD_心理的安定化</t>
+          <t>AC_5分休憩</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.2788325276755298</v>
+        <v>-0.4123816896695369</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>LF_津波避難VR</t>
+          <t>ACAnchor_5分休憩</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.2918393905584706</v>
+        <v>-0.06041817343695138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LF/(LF+HF)_実験前準備・評価</t>
+          <t>DC_5分休憩</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.312897924779697</v>
+        <v>0.4924858694834262</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>AC_実験教示</t>
+          <t>DCAnchor_5分休憩</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.314087088314235</v>
+        <v>0.1852008214605767</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_実験教示</t>
+          <t>唾液（kU/l）_心理的安定化</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.3145071276129873</v>
+        <v>0.06063772615141916</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>唾液（kU/l）_テスト歩行</t>
+          <t>不安（80点中）_心理的安定化</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.3165490271553706</v>
+        <v>0.0653331767356229</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>4. 津波後_状態不安</t>
+          <t>RRI_心理的安定化</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.3189427247294943</v>
+        <v>-0.1456463585607099</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>AC_心理的安定化</t>
+          <t>LF_心理的安定化</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.3241613855305782</v>
+        <v>0.3363970889921339</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>NN50_心理的安定化</t>
+          <t>HF_心理的安定化</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.3267866914616877</v>
+        <v>-0.3429541104378235</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>HF_津波避難VR</t>
+          <t>LF/HF_心理的安定化</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.3268628222395054</v>
+        <v>0.6950932619841408</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>5. 休憩後_唾液kU/l</t>
+          <t>LF/(LF+HF)_心理的安定化</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.3280480573738138</v>
+        <v>0.6956508384695554</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>3. テスト歩行後_唾液kU/l</t>
+          <t>Temp_心理的安定化</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.3297961456471997</v>
+        <v>-0.05753743053101873</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>避難行動に関する知識の正答率</t>
+          <t>Acc_x_心理的安定化</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.3373253623070786</v>
+        <v>0.3695498416907627</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>3. テスト歩行後_状態不安</t>
+          <t>Acc_y_心理的安定化</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.3397710953392497</v>
+        <v>0.4828937146978496</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>AC_津波避難VR</t>
+          <t>Acc_z_心理的安定化</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.3402671667055739</v>
+        <v>-0.09022970754036473</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>HF_心理的安定化</t>
+          <t>CVRR_心理的安定化</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.3429541104378235</v>
+        <v>0.1296757067829136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>pNN50_心理的安定化</t>
+          <t>SDNN_心理的安定化</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.3469788466241768</v>
+        <v>0.02830250167793452</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>1. 安静時_状態不安</t>
+          <t>RMSSD_心理的安定化</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.3524156074553712</v>
+        <v>-0.2788325276755298</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>AC_テスト歩行</t>
+          <t>NN50_心理的安定化</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.3716621072980005</v>
+        <v>-0.3267866914616877</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>AC_5分休憩</t>
+          <t>pNN50_心理的安定化</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.4123816896695369</v>
+        <v>-0.3469788466241768</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>調和性</t>
+          <t>AC_心理的安定化</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.4389893879626672</v>
+        <v>-0.3241613855305782</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>LF/HF_実験前準備・評価</t>
+          <t>ACAnchor_心理的安定化</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.4935097294920562</v>
+        <v>-0.04194914388216121</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>家族喪失</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
+          <t>DC_心理的安定化</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.44075080007948</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>知人喪失</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>DCAnchor_心理的安定化</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.193703253046843</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
